--- a/11 - Funções de Data e Hora/05 - Como calcular o intervalo entre datas/Planilha1.xlsx
+++ b/11 - Funções de Data e Hora/05 - Como calcular o intervalo entre datas/Planilha1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelExtremo\11 - Funções de Data e Hora\04 - Como usar a função NÚMSEMANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExcelExtremo\11 - Funções de Data e Hora\05 - Como calcular o intervalo entre datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697C5FE-211F-4CFF-86CA-47343EA4C639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FDA015-5433-4D46-861C-A2D9F273FA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="527" activeTab="1" xr2:uid="{5DF8F55A-8056-4556-AA27-D6E6576B59DA}"/>
+    <workbookView xWindow="14865" yWindow="0" windowWidth="13935" windowHeight="16200" tabRatio="527" activeTab="1" xr2:uid="{5DF8F55A-8056-4556-AA27-D6E6576B59DA}"/>
   </bookViews>
   <sheets>
     <sheet name="faturas vencidas" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'faturas recebidas'!$A$4:$F$19</definedName>
-    <definedName name="CONJUNTO_DE_CELULAS">'faturas recebidas'!$H$5:$H$19</definedName>
+    <definedName name="CONJUNTO_DE_CELULAS">'faturas recebidas'!$L$5:$L$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Nome</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>Número da Semana</t>
+  </si>
+  <si>
+    <t>Prazo de Pg. Dia</t>
+  </si>
+  <si>
+    <t>Prazo de Pg. Semana</t>
+  </si>
+  <si>
+    <t>Prazo de Pg. Mês</t>
+  </si>
+  <si>
+    <t>Prazo de Pg. Ano</t>
+  </si>
+  <si>
+    <t>Data de Emissão</t>
   </si>
 </sst>
 </file>
@@ -299,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -314,8 +329,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,6 +364,14 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -675,18 +696,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -694,20 +715,20 @@
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="2.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -715,1081 +736,1081 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>44316</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>580</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>44168.927083333336</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>44221</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>538.91999999999996</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>44185.3125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D315"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D320"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D321"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D322"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D323"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D324"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D325"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D326"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D327"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D328"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D329"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D330"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D331"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D332"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D333"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D334"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D335"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D336"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D337"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D338"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D339"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D340"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D341"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D342"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D343"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D344"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D345"/>
     </row>
   </sheetData>
@@ -1803,83 +1824,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2824AE56-8E4D-4436-9865-896375147EC9}">
-  <dimension ref="A1:K358"/>
+  <dimension ref="A1:O358"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="2.4">
-      <c r="A2" s="26" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="25">
         <f ca="1">TODAY()</f>
-        <v>45592</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+        <v>45606</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1889,23 +1938,39 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24">
-        <v>44278</v>
+      <c r="D5" s="22">
+        <v>45374</v>
       </c>
       <c r="E5" s="8">
         <v>880.9</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="27">
         <v>44168.020833333336</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="5">
         <f>WEEKNUM(D5,2)</f>
-        <v>13</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="30">
+        <f>ROUND(D5-F5,0)</f>
+        <v>1206</v>
+      </c>
+      <c r="I5" s="30">
+        <f>INT(H5/7)</f>
+        <v>172</v>
+      </c>
+      <c r="J5" s="30">
+        <f>DATEDIF(F5,D5,"M")</f>
+        <v>39</v>
+      </c>
+      <c r="K5" s="30">
+        <f>DATEDIF(F5,D5,"Y")</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1915,22 +1980,38 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>44299</v>
       </c>
       <c r="E6" s="9">
         <v>802</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="28">
         <v>44168.958333333336</v>
       </c>
-      <c r="G6" s="29">
-        <f t="shared" ref="G6:G19" si="0">WEEKNUM(D6,2)</f>
+      <c r="G6" s="7">
+        <f>WEEKNUM(D6,2)</f>
         <v>16</v>
       </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="31">
+        <f t="shared" ref="H6:H19" si="0">ROUND(D6-F6,0)</f>
+        <v>130</v>
+      </c>
+      <c r="I6" s="31">
+        <f t="shared" ref="I6:I19" si="1">INT(H6/7)</f>
+        <v>18</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" ref="J6:J19" si="2">DATEDIF(F6,D6,"M")</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K19" si="3">DATEDIF(F6,D6,"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1940,22 +2021,38 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>44299</v>
       </c>
       <c r="E7" s="9">
         <v>500</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="28">
         <v>44168.958333333336</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G19" si="4">WEEKNUM(D7,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H7" s="31">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="I7" s="31">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1965,22 +2062,38 @@
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>44207</v>
       </c>
       <c r="E8" s="9">
         <v>567</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="28">
         <v>44184.169444444444</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1990,22 +2103,38 @@
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>44265</v>
       </c>
       <c r="E9" s="9">
         <v>1027</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="28">
         <v>44187.354166666664</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="7">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H9" s="31">
         <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2015,22 +2144,38 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>44285</v>
       </c>
       <c r="E10" s="9">
         <v>1027</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="28">
         <v>44197.4375</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="7">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="31">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2040,22 +2185,38 @@
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>44214</v>
       </c>
       <c r="E11" s="9">
         <v>2193.34</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="28">
         <v>44193.135416666664</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I11" s="31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -2065,22 +2226,38 @@
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>44214</v>
       </c>
       <c r="E12" s="9">
         <v>2193.34</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="28">
         <v>44193.135416666664</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I12" s="31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -2090,22 +2267,38 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>44214</v>
       </c>
       <c r="E13" s="9">
         <v>2193.34</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="28">
         <v>44193.135416666664</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -2115,22 +2308,38 @@
       <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <v>44261</v>
       </c>
       <c r="E14" s="9">
         <v>2193.33</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="28">
         <v>44171.135416666664</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="31">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I14" s="31">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -2140,22 +2349,38 @@
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>44285</v>
       </c>
       <c r="E15" s="9">
         <v>680</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="28">
         <v>44179.490972222222</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="7">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15" s="31">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I15" s="31">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
@@ -2165,22 +2390,38 @@
       <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <v>44207</v>
       </c>
       <c r="E16" s="9">
         <v>200</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="28">
         <v>44186.763888888891</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -2190,22 +2431,38 @@
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>44207</v>
       </c>
       <c r="E17" s="9">
         <v>200</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="28">
         <v>44186</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="31">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2215,22 +2472,38 @@
       <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="23">
-        <v>44221</v>
+      <c r="D18" s="21">
+        <v>44951</v>
       </c>
       <c r="E18" s="9">
         <v>405</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="28">
         <v>44188.806944444441</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="31">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -2240,2657 +2513,3969 @@
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>44277</v>
       </c>
       <c r="E19" s="9">
         <v>1000</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="28">
         <v>44189.583333333336</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="7">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H19" s="31">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="F35"/>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="F36"/>
       <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="F37"/>
       <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="F38"/>
       <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="F39"/>
       <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="F40"/>
       <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="F41"/>
       <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="F42"/>
       <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="F43"/>
       <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="F44"/>
       <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="F45"/>
       <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="F46"/>
       <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="F47"/>
       <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="F48"/>
       <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="F49"/>
       <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="F50"/>
       <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="F51"/>
       <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="F52"/>
       <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="F53"/>
       <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="F54"/>
       <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="F55"/>
       <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="F56"/>
       <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="F57"/>
       <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="F58"/>
       <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="F59"/>
       <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="F60"/>
       <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="F61"/>
       <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="F62"/>
       <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="F63"/>
       <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="F64"/>
       <c r="G64"/>
-    </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="F65"/>
       <c r="G65"/>
-    </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="F66"/>
       <c r="G66"/>
-    </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="F67"/>
       <c r="G67"/>
-    </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="F68"/>
       <c r="G68"/>
-    </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="F69"/>
       <c r="G69"/>
-    </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="F70"/>
       <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="F71"/>
       <c r="G71"/>
-    </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="F72"/>
       <c r="G72"/>
-    </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="F73"/>
       <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="F74"/>
       <c r="G74"/>
-    </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="F75"/>
       <c r="G75"/>
-    </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="F76"/>
       <c r="G76"/>
-    </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="F77"/>
       <c r="G77"/>
-    </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="F78"/>
       <c r="G78"/>
-    </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="F79"/>
       <c r="G79"/>
-    </row>
-    <row r="80" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="F80"/>
       <c r="G80"/>
-    </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="F81"/>
       <c r="G81"/>
-    </row>
-    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="F82"/>
       <c r="G82"/>
-    </row>
-    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="F83"/>
       <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="F84"/>
       <c r="G84"/>
-    </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="F85"/>
       <c r="G85"/>
-    </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="F86"/>
       <c r="G86"/>
-    </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="F87"/>
       <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="F88"/>
       <c r="G88"/>
-    </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="F89"/>
       <c r="G89"/>
-    </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="F90"/>
       <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="F91"/>
       <c r="G91"/>
-    </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="F92"/>
       <c r="G92"/>
-    </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="F93"/>
       <c r="G93"/>
-    </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="F94"/>
       <c r="G94"/>
-    </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="F95"/>
       <c r="G95"/>
-    </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="F96"/>
       <c r="G96"/>
-    </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="F97"/>
       <c r="G97"/>
-    </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="F98"/>
       <c r="G98"/>
-    </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="F99"/>
       <c r="G99"/>
-    </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="F100"/>
       <c r="G100"/>
-    </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="F101"/>
       <c r="G101"/>
-    </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="F102"/>
       <c r="G102"/>
-    </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="F103"/>
       <c r="G103"/>
-    </row>
-    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="F104"/>
       <c r="G104"/>
-    </row>
-    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="F105"/>
       <c r="G105"/>
-    </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="F106"/>
       <c r="G106"/>
-    </row>
-    <row r="107" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="F107"/>
       <c r="G107"/>
-    </row>
-    <row r="108" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="F108"/>
       <c r="G108"/>
-    </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="F109"/>
       <c r="G109"/>
-    </row>
-    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="F110"/>
       <c r="G110"/>
-    </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="F111"/>
       <c r="G111"/>
-    </row>
-    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="F112"/>
       <c r="G112"/>
-    </row>
-    <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="F113"/>
       <c r="G113"/>
-    </row>
-    <row r="114" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="F114"/>
       <c r="G114"/>
-    </row>
-    <row r="115" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="F115"/>
       <c r="G115"/>
-    </row>
-    <row r="116" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="F116"/>
       <c r="G116"/>
-    </row>
-    <row r="117" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="F117"/>
       <c r="G117"/>
-    </row>
-    <row r="118" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="F118"/>
       <c r="G118"/>
-    </row>
-    <row r="119" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="F119"/>
       <c r="G119"/>
-    </row>
-    <row r="120" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+    </row>
+    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="F120"/>
       <c r="G120"/>
-    </row>
-    <row r="121" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="F121"/>
       <c r="G121"/>
-    </row>
-    <row r="122" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="F122"/>
       <c r="G122"/>
-    </row>
-    <row r="123" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+    </row>
+    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="F123"/>
       <c r="G123"/>
-    </row>
-    <row r="124" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+    </row>
+    <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="F124"/>
       <c r="G124"/>
-    </row>
-    <row r="125" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+    </row>
+    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="F125"/>
       <c r="G125"/>
-    </row>
-    <row r="126" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="F126"/>
       <c r="G126"/>
-    </row>
-    <row r="127" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="F127"/>
       <c r="G127"/>
-    </row>
-    <row r="128" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="F128"/>
       <c r="G128"/>
-    </row>
-    <row r="129" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+    </row>
+    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="F129"/>
       <c r="G129"/>
-    </row>
-    <row r="130" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="F130"/>
       <c r="G130"/>
-    </row>
-    <row r="131" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="F131"/>
       <c r="G131"/>
-    </row>
-    <row r="132" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="F132"/>
       <c r="G132"/>
-    </row>
-    <row r="133" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
       <c r="F133"/>
       <c r="G133"/>
-    </row>
-    <row r="134" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+    </row>
+    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
       <c r="F134"/>
       <c r="G134"/>
-    </row>
-    <row r="135" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
       <c r="F135"/>
       <c r="G135"/>
-    </row>
-    <row r="136" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
       <c r="F136"/>
       <c r="G136"/>
-    </row>
-    <row r="137" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="F137"/>
       <c r="G137"/>
-    </row>
-    <row r="138" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
       <c r="F138"/>
       <c r="G138"/>
-    </row>
-    <row r="139" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="F139"/>
       <c r="G139"/>
-    </row>
-    <row r="140" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="F140"/>
       <c r="G140"/>
-    </row>
-    <row r="141" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+    </row>
+    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="F141"/>
       <c r="G141"/>
-    </row>
-    <row r="142" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
       <c r="F142"/>
       <c r="G142"/>
-    </row>
-    <row r="143" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+    </row>
+    <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="F143"/>
       <c r="G143"/>
-    </row>
-    <row r="144" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
       <c r="F144"/>
       <c r="G144"/>
-    </row>
-    <row r="145" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="F145"/>
       <c r="G145"/>
-    </row>
-    <row r="146" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
       <c r="F146"/>
       <c r="G146"/>
-    </row>
-    <row r="147" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+    </row>
+    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
       <c r="F147"/>
       <c r="G147"/>
-    </row>
-    <row r="148" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
       <c r="F148"/>
       <c r="G148"/>
-    </row>
-    <row r="149" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
       <c r="F149"/>
       <c r="G149"/>
-    </row>
-    <row r="150" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
       <c r="F150"/>
       <c r="G150"/>
-    </row>
-    <row r="151" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+    </row>
+    <row r="151" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
       <c r="F151"/>
       <c r="G151"/>
-    </row>
-    <row r="152" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
       <c r="F152"/>
       <c r="G152"/>
-    </row>
-    <row r="153" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
       <c r="F153"/>
       <c r="G153"/>
-    </row>
-    <row r="154" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+    </row>
+    <row r="154" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
       <c r="F154"/>
       <c r="G154"/>
-    </row>
-    <row r="155" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+    </row>
+    <row r="155" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
       <c r="F155"/>
       <c r="G155"/>
-    </row>
-    <row r="156" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+    </row>
+    <row r="156" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
       <c r="F156"/>
       <c r="G156"/>
-    </row>
-    <row r="157" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+    </row>
+    <row r="157" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
       <c r="F157"/>
       <c r="G157"/>
-    </row>
-    <row r="158" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+    </row>
+    <row r="158" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
       <c r="F158"/>
       <c r="G158"/>
-    </row>
-    <row r="159" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
       <c r="F159"/>
       <c r="G159"/>
-    </row>
-    <row r="160" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+    </row>
+    <row r="160" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
       <c r="F160"/>
       <c r="G160"/>
-    </row>
-    <row r="161" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+    </row>
+    <row r="161" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="F161"/>
       <c r="G161"/>
-    </row>
-    <row r="162" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+    </row>
+    <row r="162" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="F162"/>
       <c r="G162"/>
-    </row>
-    <row r="163" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+    </row>
+    <row r="163" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
       <c r="F163"/>
       <c r="G163"/>
-    </row>
-    <row r="164" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+    </row>
+    <row r="164" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
       <c r="F164"/>
       <c r="G164"/>
-    </row>
-    <row r="165" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+    </row>
+    <row r="165" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
       <c r="F165"/>
       <c r="G165"/>
-    </row>
-    <row r="166" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+    </row>
+    <row r="166" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
       <c r="F166"/>
       <c r="G166"/>
-    </row>
-    <row r="167" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+    </row>
+    <row r="167" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
       <c r="F167"/>
       <c r="G167"/>
-    </row>
-    <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+    </row>
+    <row r="168" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
       <c r="F168"/>
       <c r="G168"/>
-    </row>
-    <row r="169" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+    </row>
+    <row r="169" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
       <c r="F169"/>
       <c r="G169"/>
-    </row>
-    <row r="170" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+    </row>
+    <row r="170" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
       <c r="F170"/>
       <c r="G170"/>
-    </row>
-    <row r="171" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+    </row>
+    <row r="171" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
       <c r="F171"/>
       <c r="G171"/>
-    </row>
-    <row r="172" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+    </row>
+    <row r="172" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
       <c r="F172"/>
       <c r="G172"/>
-    </row>
-    <row r="173" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+    </row>
+    <row r="173" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
       <c r="F173"/>
       <c r="G173"/>
-    </row>
-    <row r="174" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+    </row>
+    <row r="174" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
       <c r="F174"/>
       <c r="G174"/>
-    </row>
-    <row r="175" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+    </row>
+    <row r="175" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
       <c r="F175"/>
       <c r="G175"/>
-    </row>
-    <row r="176" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+    </row>
+    <row r="176" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
       <c r="F176"/>
       <c r="G176"/>
-    </row>
-    <row r="177" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+    </row>
+    <row r="177" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="F177"/>
       <c r="G177"/>
-    </row>
-    <row r="178" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+    </row>
+    <row r="178" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
       <c r="F178"/>
       <c r="G178"/>
-    </row>
-    <row r="179" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+    </row>
+    <row r="179" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="F179"/>
       <c r="G179"/>
-    </row>
-    <row r="180" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+    </row>
+    <row r="180" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
       <c r="F180"/>
       <c r="G180"/>
-    </row>
-    <row r="181" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+    </row>
+    <row r="181" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
       <c r="F181"/>
       <c r="G181"/>
-    </row>
-    <row r="182" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+    </row>
+    <row r="182" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
       <c r="F182"/>
       <c r="G182"/>
-    </row>
-    <row r="183" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+    </row>
+    <row r="183" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="F183"/>
       <c r="G183"/>
-    </row>
-    <row r="184" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+    </row>
+    <row r="184" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
       <c r="F184"/>
       <c r="G184"/>
-    </row>
-    <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+    </row>
+    <row r="185" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
       <c r="F185"/>
       <c r="G185"/>
-    </row>
-    <row r="186" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+    </row>
+    <row r="186" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
       <c r="F186"/>
       <c r="G186"/>
-    </row>
-    <row r="187" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+    </row>
+    <row r="187" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
       <c r="F187"/>
       <c r="G187"/>
-    </row>
-    <row r="188" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+    </row>
+    <row r="188" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="F188"/>
       <c r="G188"/>
-    </row>
-    <row r="189" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+    </row>
+    <row r="189" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="F189"/>
       <c r="G189"/>
-    </row>
-    <row r="190" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+    </row>
+    <row r="190" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
       <c r="F190"/>
       <c r="G190"/>
-    </row>
-    <row r="191" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H190"/>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
+    </row>
+    <row r="191" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
       <c r="F191"/>
       <c r="G191"/>
-    </row>
-    <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
+    </row>
+    <row r="192" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
       <c r="F192"/>
       <c r="G192"/>
-    </row>
-    <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H192"/>
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
+    </row>
+    <row r="193" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
       <c r="F193"/>
       <c r="G193"/>
-    </row>
-    <row r="194" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+    </row>
+    <row r="194" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
       <c r="F194"/>
       <c r="G194"/>
-    </row>
-    <row r="195" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+    </row>
+    <row r="195" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
       <c r="F195"/>
       <c r="G195"/>
-    </row>
-    <row r="196" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+    </row>
+    <row r="196" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
       <c r="F196"/>
       <c r="G196"/>
-    </row>
-    <row r="197" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+    </row>
+    <row r="197" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
       <c r="F197"/>
       <c r="G197"/>
-    </row>
-    <row r="198" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="F198"/>
       <c r="G198"/>
-    </row>
-    <row r="199" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
       <c r="F199"/>
       <c r="G199"/>
-    </row>
-    <row r="200" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
       <c r="F200"/>
       <c r="G200"/>
-    </row>
-    <row r="201" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
       <c r="F201"/>
       <c r="G201"/>
-    </row>
-    <row r="202" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+    </row>
+    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
       <c r="F202"/>
       <c r="G202"/>
-    </row>
-    <row r="203" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+    </row>
+    <row r="203" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
       <c r="F203"/>
       <c r="G203"/>
-    </row>
-    <row r="204" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+    </row>
+    <row r="204" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
       <c r="F204"/>
       <c r="G204"/>
-    </row>
-    <row r="205" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+    </row>
+    <row r="205" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
       <c r="F205"/>
       <c r="G205"/>
-    </row>
-    <row r="206" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
       <c r="F206"/>
       <c r="G206"/>
-    </row>
-    <row r="207" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+    </row>
+    <row r="207" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
       <c r="F207"/>
       <c r="G207"/>
-    </row>
-    <row r="208" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+    </row>
+    <row r="208" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
       <c r="F208"/>
       <c r="G208"/>
-    </row>
-    <row r="209" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
       <c r="F209"/>
       <c r="G209"/>
-    </row>
-    <row r="210" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+    </row>
+    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
       <c r="F210"/>
       <c r="G210"/>
-    </row>
-    <row r="211" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+    </row>
+    <row r="211" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
       <c r="F211"/>
       <c r="G211"/>
-    </row>
-    <row r="212" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+    </row>
+    <row r="212" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
       <c r="F212"/>
       <c r="G212"/>
-    </row>
-    <row r="213" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+    </row>
+    <row r="213" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
       <c r="F213"/>
       <c r="G213"/>
-    </row>
-    <row r="214" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+    </row>
+    <row r="214" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
       <c r="F214"/>
       <c r="G214"/>
-    </row>
-    <row r="215" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+    </row>
+    <row r="215" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="F215"/>
       <c r="G215"/>
-    </row>
-    <row r="216" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+    </row>
+    <row r="216" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
       <c r="F216"/>
       <c r="G216"/>
-    </row>
-    <row r="217" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+      <c r="K216"/>
+    </row>
+    <row r="217" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="F217"/>
       <c r="G217"/>
-    </row>
-    <row r="218" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
+    </row>
+    <row r="218" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
       <c r="F218"/>
       <c r="G218"/>
-    </row>
-    <row r="219" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+    </row>
+    <row r="219" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
       <c r="F219"/>
       <c r="G219"/>
-    </row>
-    <row r="220" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
       <c r="F220"/>
       <c r="G220"/>
-    </row>
-    <row r="221" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
       <c r="F221"/>
       <c r="G221"/>
-    </row>
-    <row r="222" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+    </row>
+    <row r="222" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
       <c r="F222"/>
       <c r="G222"/>
-    </row>
-    <row r="223" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+    </row>
+    <row r="223" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
       <c r="F223"/>
       <c r="G223"/>
-    </row>
-    <row r="224" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+    </row>
+    <row r="224" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
       <c r="F224"/>
       <c r="G224"/>
-    </row>
-    <row r="225" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+    </row>
+    <row r="225" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
       <c r="F225"/>
       <c r="G225"/>
-    </row>
-    <row r="226" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+    </row>
+    <row r="226" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
       <c r="F226"/>
       <c r="G226"/>
-    </row>
-    <row r="227" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
+    </row>
+    <row r="227" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
       <c r="F227"/>
       <c r="G227"/>
-    </row>
-    <row r="228" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+    </row>
+    <row r="228" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
       <c r="F228"/>
       <c r="G228"/>
-    </row>
-    <row r="229" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
+    </row>
+    <row r="229" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
       <c r="F229"/>
       <c r="G229"/>
-    </row>
-    <row r="230" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+      <c r="K229"/>
+    </row>
+    <row r="230" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
       <c r="F230"/>
       <c r="G230"/>
-    </row>
-    <row r="231" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+      <c r="K230"/>
+    </row>
+    <row r="231" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
       <c r="F231"/>
       <c r="G231"/>
-    </row>
-    <row r="232" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+    </row>
+    <row r="232" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
       <c r="F232"/>
       <c r="G232"/>
-    </row>
-    <row r="233" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232"/>
+      <c r="K232"/>
+    </row>
+    <row r="233" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
       <c r="F233"/>
       <c r="G233"/>
-    </row>
-    <row r="234" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233"/>
+      <c r="K233"/>
+    </row>
+    <row r="234" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
       <c r="F234"/>
       <c r="G234"/>
-    </row>
-    <row r="235" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H234"/>
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
+    </row>
+    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
       <c r="F235"/>
       <c r="G235"/>
-    </row>
-    <row r="236" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H235"/>
+      <c r="I235"/>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
       <c r="F236"/>
       <c r="G236"/>
-    </row>
-    <row r="237" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H236"/>
+      <c r="I236"/>
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
       <c r="F237"/>
       <c r="G237"/>
-    </row>
-    <row r="238" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
       <c r="F238"/>
       <c r="G238"/>
-    </row>
-    <row r="239" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H238"/>
+      <c r="I238"/>
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
       <c r="F239"/>
       <c r="G239"/>
-    </row>
-    <row r="240" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
       <c r="F240"/>
       <c r="G240"/>
-    </row>
-    <row r="241" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
       <c r="F241"/>
       <c r="G241"/>
-    </row>
-    <row r="242" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
       <c r="F242"/>
       <c r="G242"/>
-    </row>
-    <row r="243" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
       <c r="F243"/>
       <c r="G243"/>
-    </row>
-    <row r="244" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
       <c r="F244"/>
       <c r="G244"/>
-    </row>
-    <row r="245" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
       <c r="F245"/>
       <c r="G245"/>
-    </row>
-    <row r="246" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
       <c r="F246"/>
       <c r="G246"/>
-    </row>
-    <row r="247" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
       <c r="F247"/>
       <c r="G247"/>
-    </row>
-    <row r="248" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
       <c r="F248"/>
       <c r="G248"/>
-    </row>
-    <row r="249" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
       <c r="F249"/>
       <c r="G249"/>
-    </row>
-    <row r="250" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
       <c r="F250"/>
       <c r="G250"/>
-    </row>
-    <row r="251" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
       <c r="F251"/>
       <c r="G251"/>
-    </row>
-    <row r="252" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
       <c r="F252"/>
       <c r="G252"/>
-    </row>
-    <row r="253" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
       <c r="F253"/>
       <c r="G253"/>
-    </row>
-    <row r="254" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
       <c r="F254"/>
       <c r="G254"/>
-    </row>
-    <row r="255" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
       <c r="F255"/>
       <c r="G255"/>
-    </row>
-    <row r="256" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
       <c r="F256"/>
       <c r="G256"/>
-    </row>
-    <row r="257" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
       <c r="F257"/>
       <c r="G257"/>
-    </row>
-    <row r="258" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
       <c r="F258"/>
       <c r="G258"/>
-    </row>
-    <row r="259" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
       <c r="F259"/>
       <c r="G259"/>
-    </row>
-    <row r="260" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
       <c r="F260"/>
       <c r="G260"/>
-    </row>
-    <row r="261" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
       <c r="F261"/>
       <c r="G261"/>
-    </row>
-    <row r="262" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
       <c r="F262"/>
       <c r="G262"/>
-    </row>
-    <row r="263" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
       <c r="F263"/>
       <c r="G263"/>
-    </row>
-    <row r="264" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
       <c r="F264"/>
       <c r="G264"/>
-    </row>
-    <row r="265" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H264"/>
+      <c r="I264"/>
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
       <c r="F265"/>
       <c r="G265"/>
-    </row>
-    <row r="266" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
       <c r="F266"/>
       <c r="G266"/>
-    </row>
-    <row r="267" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
       <c r="F267"/>
       <c r="G267"/>
-    </row>
-    <row r="268" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
       <c r="F268"/>
       <c r="G268"/>
-    </row>
-    <row r="269" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H268"/>
+      <c r="I268"/>
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
       <c r="F269"/>
       <c r="G269"/>
-    </row>
-    <row r="270" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H269"/>
+      <c r="I269"/>
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
       <c r="F270"/>
       <c r="G270"/>
-    </row>
-    <row r="271" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H270"/>
+      <c r="I270"/>
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
       <c r="F271"/>
       <c r="G271"/>
-    </row>
-    <row r="272" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H271"/>
+      <c r="I271"/>
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="F272"/>
       <c r="G272"/>
-    </row>
-    <row r="273" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="F273"/>
       <c r="G273"/>
-    </row>
-    <row r="274" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H273"/>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="F274"/>
       <c r="G274"/>
-    </row>
-    <row r="275" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="F275"/>
       <c r="G275"/>
-    </row>
-    <row r="276" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H275"/>
+      <c r="I275"/>
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="F276"/>
       <c r="G276"/>
-    </row>
-    <row r="277" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="F277"/>
       <c r="G277"/>
-    </row>
-    <row r="278" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="F278"/>
       <c r="G278"/>
-    </row>
-    <row r="279" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="F279"/>
       <c r="G279"/>
-    </row>
-    <row r="280" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="F280"/>
       <c r="G280"/>
-    </row>
-    <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H280"/>
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="F281"/>
       <c r="G281"/>
-    </row>
-    <row r="282" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="F282"/>
       <c r="G282"/>
-    </row>
-    <row r="283" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="F283"/>
       <c r="G283"/>
-    </row>
-    <row r="284" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H283"/>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="F284"/>
       <c r="G284"/>
-    </row>
-    <row r="285" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H284"/>
+      <c r="I284"/>
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="F285"/>
       <c r="G285"/>
-    </row>
-    <row r="286" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="F286"/>
       <c r="G286"/>
-    </row>
-    <row r="287" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H286"/>
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287"/>
       <c r="F287"/>
       <c r="G287"/>
-    </row>
-    <row r="288" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H287"/>
+      <c r="I287"/>
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
       <c r="F288"/>
       <c r="G288"/>
-    </row>
-    <row r="289" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H288"/>
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
       <c r="F289"/>
       <c r="G289"/>
-    </row>
-    <row r="290" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
       <c r="F290"/>
       <c r="G290"/>
-    </row>
-    <row r="291" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
       <c r="F291"/>
       <c r="G291"/>
-    </row>
-    <row r="292" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
       <c r="F292"/>
       <c r="G292"/>
-    </row>
-    <row r="293" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
       <c r="F293"/>
       <c r="G293"/>
-    </row>
-    <row r="294" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="F294"/>
       <c r="G294"/>
-    </row>
-    <row r="295" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="F295"/>
       <c r="G295"/>
-    </row>
-    <row r="296" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H295"/>
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
       <c r="F296"/>
       <c r="G296"/>
-    </row>
-    <row r="297" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
       <c r="F297"/>
       <c r="G297"/>
-    </row>
-    <row r="298" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H297"/>
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
       <c r="F298"/>
       <c r="G298"/>
-    </row>
-    <row r="299" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H298"/>
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
       <c r="F299"/>
       <c r="G299"/>
-    </row>
-    <row r="300" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H299"/>
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
       <c r="F300"/>
       <c r="G300"/>
-    </row>
-    <row r="301" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="F301"/>
       <c r="G301"/>
-    </row>
-    <row r="302" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="F302"/>
       <c r="G302"/>
-    </row>
-    <row r="303" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="F303"/>
       <c r="G303"/>
-    </row>
-    <row r="304" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="F304"/>
       <c r="G304"/>
-    </row>
-    <row r="305" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="F305"/>
       <c r="G305"/>
-    </row>
-    <row r="306" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
       <c r="F306"/>
       <c r="G306"/>
-    </row>
-    <row r="307" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
       <c r="F307"/>
       <c r="G307"/>
-    </row>
-    <row r="308" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H307"/>
+      <c r="I307"/>
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="F308"/>
       <c r="G308"/>
-    </row>
-    <row r="309" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
       <c r="F309"/>
       <c r="G309"/>
-    </row>
-    <row r="310" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H309"/>
+      <c r="I309"/>
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="F310"/>
       <c r="G310"/>
-    </row>
-    <row r="311" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
       <c r="F311"/>
       <c r="G311"/>
-    </row>
-    <row r="312" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H311"/>
+      <c r="I311"/>
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
       <c r="F312"/>
       <c r="G312"/>
-    </row>
-    <row r="313" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
       <c r="F313"/>
       <c r="G313"/>
-    </row>
-    <row r="314" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
       <c r="F314"/>
       <c r="G314"/>
-    </row>
-    <row r="315" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
       <c r="F315"/>
       <c r="G315"/>
-    </row>
-    <row r="316" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
       <c r="F316"/>
       <c r="G316"/>
-    </row>
-    <row r="317" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
       <c r="F317"/>
       <c r="G317"/>
-    </row>
-    <row r="318" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="F318"/>
       <c r="G318"/>
-    </row>
-    <row r="319" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="F319"/>
       <c r="G319"/>
-    </row>
-    <row r="320" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="F320"/>
       <c r="G320"/>
-    </row>
-    <row r="321" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="F321"/>
       <c r="G321"/>
-    </row>
-    <row r="322" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H321"/>
+      <c r="I321"/>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="F322"/>
       <c r="G322"/>
-    </row>
-    <row r="323" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="F323"/>
       <c r="G323"/>
-    </row>
-    <row r="324" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="F324"/>
       <c r="G324"/>
-    </row>
-    <row r="325" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="F325"/>
       <c r="G325"/>
-    </row>
-    <row r="326" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H325"/>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="F326"/>
       <c r="G326"/>
-    </row>
-    <row r="327" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="F327"/>
       <c r="G327"/>
-    </row>
-    <row r="328" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="F328"/>
       <c r="G328"/>
-    </row>
-    <row r="329" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H328"/>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="F329"/>
       <c r="G329"/>
-    </row>
-    <row r="330" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="F330"/>
       <c r="G330"/>
-    </row>
-    <row r="331" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="F331"/>
       <c r="G331"/>
-    </row>
-    <row r="332" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="F332"/>
       <c r="G332"/>
-    </row>
-    <row r="333" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H332"/>
+      <c r="I332"/>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="F333"/>
       <c r="G333"/>
-    </row>
-    <row r="334" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="F334"/>
       <c r="G334"/>
-    </row>
-    <row r="335" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="F335"/>
       <c r="G335"/>
-    </row>
-    <row r="336" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="F336"/>
       <c r="G336"/>
-    </row>
-    <row r="337" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="F337"/>
       <c r="G337"/>
-    </row>
-    <row r="338" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H337"/>
+      <c r="I337"/>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="F338"/>
       <c r="G338"/>
-    </row>
-    <row r="339" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H338"/>
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="F339"/>
       <c r="G339"/>
-    </row>
-    <row r="340" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H339"/>
+      <c r="I339"/>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="F340"/>
       <c r="G340"/>
-    </row>
-    <row r="341" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H340"/>
+      <c r="I340"/>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="F341"/>
       <c r="G341"/>
-    </row>
-    <row r="342" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H341"/>
+      <c r="I341"/>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="F342"/>
       <c r="G342"/>
-    </row>
-    <row r="343" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H342"/>
+      <c r="I342"/>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="F343"/>
       <c r="G343"/>
-    </row>
-    <row r="344" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H343"/>
+      <c r="I343"/>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="F344"/>
       <c r="G344"/>
-    </row>
-    <row r="345" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H344"/>
+      <c r="I344"/>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="F345"/>
       <c r="G345"/>
-    </row>
-    <row r="346" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H345"/>
+      <c r="I345"/>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="F346"/>
       <c r="G346"/>
-    </row>
-    <row r="347" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="F347"/>
       <c r="G347"/>
-    </row>
-    <row r="348" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H347"/>
+      <c r="I347"/>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
       <c r="F348"/>
       <c r="G348"/>
-    </row>
-    <row r="349" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H348"/>
+      <c r="I348"/>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="F349"/>
       <c r="G349"/>
-    </row>
-    <row r="350" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H349"/>
+      <c r="I349"/>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
       <c r="F350"/>
       <c r="G350"/>
-    </row>
-    <row r="351" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H350"/>
+      <c r="I350"/>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
       <c r="F351"/>
       <c r="G351"/>
-    </row>
-    <row r="352" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H351"/>
+      <c r="I351"/>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
       <c r="F352"/>
       <c r="G352"/>
-    </row>
-    <row r="353" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H352"/>
+      <c r="I352"/>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
       <c r="F353"/>
       <c r="G353"/>
-    </row>
-    <row r="354" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H353"/>
+      <c r="I353"/>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
       <c r="F354"/>
       <c r="G354"/>
-    </row>
-    <row r="355" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="F355"/>
       <c r="G355"/>
-    </row>
-    <row r="356" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H355"/>
+      <c r="I355"/>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
       <c r="F356"/>
       <c r="G356"/>
-    </row>
-    <row r="357" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
       <c r="F357"/>
       <c r="G357"/>
-    </row>
-    <row r="358" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
       <c r="F358"/>
       <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F19" xr:uid="{2824AE56-8E4D-4436-9865-896375147EC9}"/>
@@ -4899,9 +6484,10 @@
     <sortCondition ref="A5:A19"/>
     <sortCondition ref="B5:B19"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
